--- a/10-26-25 to 11-01-25 Madison Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Madison Schedule.xlsx
@@ -2087,7 +2087,11 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>PARTIAL RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
@@ -2133,21 +2137,9 @@
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
@@ -2194,18 +2186,17 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Red Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -2254,15 +2245,20 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Red Camry</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
@@ -2309,12 +2305,12 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2369,12 +2365,12 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2429,20 +2425,15 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
@@ -2490,18 +2481,18 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Red Camry</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
@@ -2563,12 +2554,12 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -2632,18 +2623,18 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -2705,17 +2696,18 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2776,18 +2768,17 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -2849,17 +2840,18 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Carlie</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -2904,12 +2896,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2971,12 +2963,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3029,9 +3021,21 @@
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
@@ -3113,11 +3117,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3154,7 +3154,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3197,7 +3197,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3356,7 +3356,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3399,7 +3399,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3442,7 +3442,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3485,7 +3485,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3540,7 +3540,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3595,7 +3595,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>*4:45 am office leave time</t>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3640,7 +3640,11 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>*4:45 am office leave time</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3682,21 +3686,9 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3739,17 +3731,17 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Camry 3</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
@@ -3788,9 +3780,21 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Camry 3</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>

--- a/10-26-25 to 11-01-25 Madison Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Madison Schedule.xlsx
@@ -2576,13 +2576,12 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Jerry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2645,12 +2644,12 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -2718,12 +2717,12 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2789,13 +2788,12 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2862,7 +2860,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2910,21 +2908,9 @@
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>

--- a/10-26-25 to 11-01-25 Madison Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Madison Schedule.xlsx
@@ -1074,7 +1074,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1869,9 +1869,21 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
@@ -1968,11 +1980,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -2021,7 +2029,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2073,7 +2081,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2124,7 +2132,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2171,7 +2179,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2230,7 +2238,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2290,7 +2298,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2350,7 +2358,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2410,7 +2418,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2470,7 +2478,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2530,7 +2538,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2603,7 +2611,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2671,7 +2679,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2744,7 +2752,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2815,7 +2823,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2883,7 +2891,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2938,7 +2946,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2994,7 +3002,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3054,7 +3062,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3089,7 +3097,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3124,7 +3132,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:00 am at IL office</t>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3169,7 +3177,11 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:00 am at IL office</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3207,21 +3219,9 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -3260,18 +3260,17 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3308,12 +3307,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3366,9 +3365,22 @@
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
@@ -3449,11 +3461,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
@@ -3506,7 +3514,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL   </t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3561,7 +3569,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #091, SLINGER</t>
+          <t xml:space="preserve">DC5-FINANCIAL   </t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3616,7 +3624,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>1100 E COMMERCE BLVD</t>
+          <t>FOX BROS PIGGLY WIGGLY #091, SLINGER</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3663,7 +3671,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WgMCr1tJCE12</t>
+          <t>1100 E COMMERCE BLVD</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3706,7 +3714,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:00 am at IL office</t>
+          <t>https://goo.gl/maps/WgMCr1tJCE12</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3759,7 +3767,11 @@
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:00 am at IL office</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -3809,22 +3821,13 @@
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van, Equip</t>
-        </is>
-      </c>
+          <t>*Katherine will start at a c-store and will check in after she finishes</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -3861,16 +3864,8 @@
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -3910,15 +3905,20 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van, Equip</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -3945,20 +3945,15 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -3985,20 +3980,15 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>@ Store,
-work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -4029,17 +4019,18 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
@@ -4072,17 +4063,18 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Leyna</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -4115,18 +4107,17 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
@@ -4159,17 +4150,17 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After cstore</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
@@ -4200,9 +4191,22 @@
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -4231,9 +4235,21 @@
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>

--- a/10-26-25 to 11-01-25 Madison Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Madison Schedule.xlsx
@@ -1912,7 +1912,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>*IL Meet is 6:00 am at IL office</t>
+          <t>*IL Meet is 5:00 am at IL office</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>

--- a/10-26-25 to 11-01-25 Madison Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1733,22 +1733,9 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Katelyn</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>@ Store,
-work w/ Qiana</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
@@ -1866,7 +1853,11 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -1927,7 +1918,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1974,7 +1965,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2021,7 +2012,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2073,7 +2064,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2124,7 +2115,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2171,7 +2162,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2230,7 +2221,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2290,7 +2281,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2350,7 +2341,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2410,7 +2401,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2470,7 +2461,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2530,7 +2521,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2603,7 +2594,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
+          <t>300 PELLER RD</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2671,7 +2662,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2744,7 +2735,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>*IL Meet is 4:45 am at IL office</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2813,11 +2804,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:45 am at IL office</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -2884,9 +2871,21 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
@@ -2929,17 +2928,18 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2984,12 +2984,12 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3042,22 +3042,9 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
@@ -3125,8 +3112,16 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -3164,14 +3159,10 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3214,7 +3205,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>PIGGLY WIGGLY #243, OSHKOSH</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3253,7 +3244,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #243, OSHKOSH</t>
+          <t>525 E MURDOCK AVE</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3300,7 +3291,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>525 E MURDOCK AVE</t>
+          <t>https://goo.gl/maps/oCo6AFz8zx12</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3360,7 +3351,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/oCo6AFz8zx12</t>
+          <t>PARTIAL/FULL RESET?</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3414,11 +3405,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>PARTIAL/FULL RESET?</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -3456,9 +3443,21 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -3497,12 +3496,12 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3552,12 +3551,12 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3607,12 +3606,12 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3654,12 +3653,12 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3697,12 +3696,12 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3752,12 +3751,12 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3807,12 +3806,12 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3850,12 +3849,12 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3887,21 +3886,9 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
@@ -3975,7 +3962,11 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:30 AM START </t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -4012,7 +4003,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM START </t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -4056,7 +4047,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #29, HARRISON AVE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -4100,7 +4091,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>KELLEY #29, HARRISON AVE MOBIL, ROCKFORD</t>
+          <t>2624 STOWMARKET AVE</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -4143,7 +4134,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2624 STOWMARKET AVE</t>
+          <t>https://goo.gl/maps/as8c6yxHpQS2</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -4186,7 +4177,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/as8c6yxHpQS2</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -4230,7 +4221,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>*JEFF IS THE DM</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -4271,11 +4262,7 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>*JEFF IS THE DM</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -4301,9 +4288,21 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -4330,19 +4329,15 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -4369,12 +4364,12 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -4404,12 +4399,12 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -4439,12 +4434,12 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -4474,12 +4469,12 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -4502,41 +4497,6 @@
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-26-25 to 11-01-25 Madison Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Madison Schedule.xlsx
@@ -1243,7 +1243,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1323,10 +1323,16 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van,
+Rx</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1398,14 +1404,13 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van,
-Rx</t>
+          <t>@ Store,
+work w/ Leyna</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1477,13 +1482,13 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>@ Store,
-work w/ Leyna</t>
+Trainer</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1554,13 +1559,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1636,13 +1640,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1705,12 +1708,13 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1760,7 +1764,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1819,13 +1823,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1883,12 +1886,13 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Carlie</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1927,21 +1931,9 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -2026,7 +2018,11 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -2080,7 +2076,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2131,7 +2127,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #75, WATTS RD MOBIL, MADISON</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2178,7 +2174,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>KELLEY #75, WATTS RD MOBIL, MADISON</t>
+          <t>8230 WATTS RD</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2237,7 +2233,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>8230 WATTS RD</t>
+          <t>https://goo.gl/maps/QhLHSHo8N7F2</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2297,7 +2293,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QhLHSHo8N7F2</t>
+          <t xml:space="preserve">*IL Meet is 5:15 am at IL office </t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2309,7 +2305,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2357,7 +2353,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:15 am at IL office </t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2369,7 +2365,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2415,11 +2411,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
@@ -2429,7 +2421,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2474,9 +2466,22 @@
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2485,15 +2490,10 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2536,20 +2536,15 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
@@ -2558,13 +2553,13 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Red Camry</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -2609,15 +2604,20 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2677,18 +2677,17 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2699,13 +2698,13 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2750,12 +2749,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2771,7 +2770,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2815,21 +2814,9 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2838,13 +2825,12 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -2952,7 +2938,11 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
@@ -3010,7 +3000,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3057,7 +3047,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #19, HONONEGAH MOBIL, ROSCOE</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3092,7 +3082,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>KELLEY #19, HONONEGAH MOBIL, ROSCOE</t>
+          <t>5213 ELEVATOR RD</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3135,7 +3125,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>5213 ELEVATOR RD</t>
+          <t>https://goo.gl/maps/gdPX1c1pWf12</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3178,7 +3168,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gdPX1c1pWf12</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3215,11 +3205,7 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3265,9 +3251,21 @@
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3315,19 +3313,15 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
@@ -3375,12 +3369,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3414,12 +3408,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3465,12 +3459,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3520,12 +3514,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3573,16 +3567,8 @@
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>

--- a/10-26-25 to 11-01-25 Madison Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Madison Schedule.xlsx
@@ -3464,7 +3464,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3512,16 +3512,8 @@
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>

--- a/10-26-25 to 11-01-25 Madison Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Madison Schedule.xlsx
@@ -2040,15 +2040,10 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2096,10 +2091,15 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2245,15 +2245,10 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
@@ -2262,7 +2257,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2305,10 +2300,15 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
@@ -2317,15 +2317,10 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2365,7 +2360,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2377,7 +2372,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -2421,7 +2416,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2433,13 +2428,13 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Red Camry</t>
+Optima</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -2490,7 +2485,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2502,12 +2497,13 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2553,15 +2549,10 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
@@ -2570,7 +2561,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -2626,13 +2617,13 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Silver Van</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -2643,12 +2634,12 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -2698,7 +2689,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2715,12 +2706,12 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2770,12 +2761,13 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -2786,7 +2778,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2825,7 +2817,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2841,7 +2833,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2892,18 +2884,30 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
           <t>Pamela</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2952,7 +2956,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3012,7 +3016,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3052,9 +3056,21 @@
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -3131,11 +3147,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -3176,7 +3188,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3211,7 +3223,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3270,7 +3282,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3326,7 +3338,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3382,7 +3394,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3421,7 +3433,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3472,7 +3484,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3519,7 +3531,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3566,7 +3578,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3613,7 +3625,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>*4:45 am office leave time</t>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3658,7 +3670,11 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>*4:45 am office leave time</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -3700,21 +3716,9 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -3757,17 +3761,17 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>Camry 3</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
@@ -3810,9 +3814,21 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Camry 3</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>

--- a/10-26-25 to 11-01-25 Madison Schedule.xlsx
+++ b/10-26-25 to 11-01-25 Madison Schedule.xlsx
@@ -1649,9 +1649,21 @@
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
@@ -1774,11 +1786,7 @@
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
@@ -1835,7 +1843,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1899,7 +1907,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>FESTIVAL #2710, MT PLEASANT - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1938,7 +1946,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>5740 WASHINGTON AVE</t>
+          <t>FESTIVAL #2710, MT PLEASANT - LIFO</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1973,7 +1981,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PRSb1wjmEbn</t>
+          <t>5740 WASHINGTON AVE</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -2028,7 +2036,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:45 am at IL office</t>
+          <t>https://goo.gl/maps/PRSb1wjmEbn</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2079,7 +2087,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>PARTIAL RESET-REMAPPED</t>
+          <t>*IL Meet is 4:45 am at IL office</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2133,7 +2141,11 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>PARTIAL RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
@@ -2179,21 +2191,9 @@
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -2240,15 +2240,19 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
@@ -2295,20 +2299,15 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
@@ -2355,15 +2354,20 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
@@ -2411,12 +2415,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2480,12 +2484,12 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2544,12 +2548,12 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2612,20 +2616,15 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
@@ -2684,18 +2683,18 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Silver Van</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2756,12 +2755,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2812,17 +2811,18 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -2879,12 +2879,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2951,12 +2951,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3011,12 +3011,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3058,12 +3058,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3103,9 +3103,21 @@
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3186,11 +3198,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3223,7 +3231,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3282,7 +3290,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3338,7 +3346,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3394,7 +3402,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3433,7 +3441,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3484,7 +3492,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3531,7 +3539,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3578,7 +3586,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3625,7 +3633,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3672,7 +3680,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>*4:45 am office leave time</t>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3717,7 +3725,11 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>*4:45 am office leave time</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -3759,21 +3771,9 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
@@ -3816,17 +3816,17 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>Camry 3</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
@@ -3865,9 +3865,21 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Camry 3</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
